--- a/contact.xlsx
+++ b/contact.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -52,7 +52,7 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Lightning_Account</x:t>
+    <x:t>Accounts</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -70,7 +70,7 @@
     <x:t>Enter UserName</x:t>
   </x:si>
   <x:si>
-    <x:t>User should be able to enter in User Name field</x:t>
+    <x:t xml:space="preserve">User should be able to enter User Name </x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -79,349 +79,343 @@
     <x:t>Enter Password</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">User should be able to enter in Password field </x:t>
+    <x:t xml:space="preserve">User should be able to enter Password </x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>Click SignIn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to click on Sign in button</x:t>
+    <x:t>Click on Log In</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on Log In</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Verify Lightning </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to verfiy lightning</x:t>
+    <x:t xml:space="preserve"> Click on App Launcher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on App Launcher</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>Click Lightning</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to check lightning</x:t>
+    <x:t>Click on View All</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on View All</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>Click Accounts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to Click Accounts</x:t>
+    <x:t>Click on Sales App</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on Sales App</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
+    <x:t>Click on Accounts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on Accounts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
     <x:t>Click on New</x:t>
   </x:si>
   <x:si>
-    <x:t>User should eb able to click on New</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Enter Account Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Account Name</x:t>
+    <x:t>User should be able to Click on New</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Parent Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Parent Account</x:t>
+    <x:t>Enter the *Account Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the *Account Name</x:t>
   </x:si>
   <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Account Number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Account Number</x:t>
+    <x:t>Enter the Parent Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Parent Account</x:t>
   </x:si>
   <x:si>
     <x:t>12</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Account Site</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Account Site</x:t>
+    <x:t>Enter the Account Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Account Number</x:t>
   </x:si>
   <x:si>
     <x:t>13</x:t>
   </x:si>
   <x:si>
-    <x:t>Select Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Select Type</x:t>
+    <x:t>Enter the Account Site</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Account Site</x:t>
   </x:si>
   <x:si>
     <x:t>14</x:t>
   </x:si>
   <x:si>
-    <x:t>Select Industry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Select Industry</x:t>
+    <x:t>Select the Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to select the Type</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Annual Revenue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Annual Revenue</x:t>
+    <x:t>Select the Industry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Select the Industry</x:t>
   </x:si>
   <x:si>
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>Select Rating</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Select Rating</x:t>
+    <x:t>Enter the Annual Revenue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Annual Revenue</x:t>
   </x:si>
   <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Enter Phone</x:t>
+    <x:t>Select the Rating</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Select the Rating</x:t>
   </x:si>
   <x:si>
     <x:t>18</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Fax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Enter Fax</x:t>
+    <x:t>Enter the Phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Phone</x:t>
   </x:si>
   <x:si>
     <x:t>19</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Website</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Enter Website</x:t>
+    <x:t>Enter the Fax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Fax</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Ticker Symbol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Ticker Symbol</x:t>
+    <x:t>Enter the Website</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Website</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>Select Ownership</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Select Ownership</x:t>
+    <x:t>Enter the Ticker Symbol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Ticker Symbol</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Employees</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Enter Employees</x:t>
+    <x:t>Select the Ownership</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Select the Ownership</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter SIC Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter SIC Code</x:t>
+    <x:t>Enter the Employees</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Employees</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Billing Street</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Billing Street</x:t>
+    <x:t>Enter the SIC Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the SIC Code</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Billing City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Billing City</x:t>
+    <x:t>Enter the Billing Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Billing Street</x:t>
   </x:si>
   <x:si>
     <x:t>26</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Billing Zip/Postal Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Billing Zip/Postal Code</x:t>
+    <x:t>Enter the Shipping Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Shipping Street</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Billing State/Province</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Billing State/Province</x:t>
+    <x:t>Enter the Billing City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Billing City</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Billing Country</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Billing Country</x:t>
+    <x:t>Enter the Billing State/Province</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Billing State/Province</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Shipping Street</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Shipping Street</x:t>
+    <x:t>Enter the Billing Zip/Postal Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Billing Zip/Postal Code</x:t>
   </x:si>
   <x:si>
     <x:t>30</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Shipping City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Shipping City</x:t>
+    <x:t>Enter the Billing Country</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Billing Country</x:t>
   </x:si>
   <x:si>
     <x:t>31</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Shipping Zip/Postal Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Shipping Zip/Postal Code</x:t>
-  </x:si>
-  <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Shipping State/Province</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Shipping State/Province</x:t>
+    <x:t xml:space="preserve">Enter Shipping State/Province </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Shipping State/Province</x:t>
   </x:si>
   <x:si>
     <x:t>33</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Shipping Country</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter Shipping Country</x:t>
+    <x:t>Enter the Shipping Zip/Postal Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Shipping Zip/Postal Code</x:t>
   </x:si>
   <x:si>
     <x:t>34</x:t>
   </x:si>
   <x:si>
-    <x:t>Select Customer Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to select Customer Priority</x:t>
+    <x:t>Enter the Shipping Country</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Shipping Country</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter SLA Expiration Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter SLA Expiration Date</x:t>
+    <x:t>Select the Customer Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Select the Customer Priority</x:t>
   </x:si>
   <x:si>
     <x:t>36</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Number of Locations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter number of Locations</x:t>
+    <x:t>Select the SLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Select the SLA</x:t>
   </x:si>
   <x:si>
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>Select Active</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Select Active</x:t>
+    <x:t>Click on SLA Expiration Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on SLA Expiration Date</x:t>
   </x:si>
   <x:si>
     <x:t>38</x:t>
   </x:si>
   <x:si>
-    <x:t>Select SLA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Select SLA</x:t>
+    <x:t>Click on SLAExpirationDate__c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on SLAExpirationDate__c</x:t>
   </x:si>
   <x:si>
     <x:t>39</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter SLA Serial Number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to enter SLA Serial Number</x:t>
+    <x:t>Enter the Number of Locations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Number of Locations</x:t>
   </x:si>
   <x:si>
     <x:t>40</x:t>
   </x:si>
   <x:si>
-    <x:t>Select Upsell Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to select Upsell Opportunity</x:t>
+    <x:t>Select the Upsell Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Select the Upsell Opportunity</x:t>
   </x:si>
   <x:si>
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to  Enter Description</x:t>
+    <x:t>Select the Active</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Select the Active</x:t>
   </x:si>
   <x:si>
     <x:t>42</x:t>
@@ -430,7 +424,187 @@
     <x:t>Click on Save</x:t>
   </x:si>
   <x:si>
-    <x:t>User should be able to  Click on Save</x:t>
+    <x:t>User should be able to Click on Save</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on New Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on New Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select the Salutation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Select the Salutation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the First Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the First Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the Last Name*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Last Name*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the Account Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should able to Enter the Account Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able  Enter the Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on New Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on New Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the Contact Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Contact Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select the Status*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Select the Status*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on  Save</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on downarrow </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on downarrow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on New Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on New Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the Opportunity Name*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Opportunity Name*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Close Date*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on Close Date*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select the Stage*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Select the Stage*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Enter the Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -514,8 +688,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K43" totalsRowShown="0">
-  <x:autoFilter ref="A1:K43"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K66" totalsRowShown="0">
+  <x:autoFilter ref="A1:K66"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -821,20 +995,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K43"/>
+  <x:dimension ref="A1:K66"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="19.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.550625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="30.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="50.550625000000004" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="33.700624999999995" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="52.980625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -882,7 +1056,9 @@
       <x:c r="B2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="D2" s="0" t="s"/>
       <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s">
@@ -1459,10 +1635,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
@@ -1475,13 +1651,13 @@
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s"/>
       <x:c r="F33" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>108</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
@@ -1494,13 +1670,13 @@
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="G34" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1513,13 +1689,13 @@
       <x:c r="D35" s="0" t="s"/>
       <x:c r="E35" s="0" t="s"/>
       <x:c r="F35" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
         <x:v>112</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>114</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
@@ -1532,13 +1708,13 @@
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>117</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
@@ -1551,13 +1727,13 @@
       <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s"/>
       <x:c r="F37" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>120</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
@@ -1570,13 +1746,13 @@
       <x:c r="D38" s="0" t="s"/>
       <x:c r="E38" s="0" t="s"/>
       <x:c r="F38" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>123</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
@@ -1589,13 +1765,13 @@
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s"/>
       <x:c r="F39" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>126</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
@@ -1608,13 +1784,13 @@
       <x:c r="D40" s="0" t="s"/>
       <x:c r="E40" s="0" t="s"/>
       <x:c r="F40" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="G40" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>129</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
@@ -1627,13 +1803,13 @@
       <x:c r="D41" s="0" t="s"/>
       <x:c r="E41" s="0" t="s"/>
       <x:c r="F41" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="G41" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s">
-        <x:v>132</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
@@ -1646,13 +1822,13 @@
       <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s"/>
       <x:c r="F42" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>135</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
@@ -1665,17 +1841,454 @@
       <x:c r="D43" s="0" t="s"/>
       <x:c r="E43" s="0" t="s"/>
       <x:c r="F43" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="G43" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>138</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
       <x:c r="K43" s="0" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:11">
+      <x:c r="A44" s="0" t="s"/>
+      <x:c r="B44" s="0" t="s"/>
+      <x:c r="C44" s="0" t="s"/>
+      <x:c r="D44" s="0" t="s"/>
+      <x:c r="E44" s="0" t="s"/>
+      <x:c r="F44" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+      <x:c r="K44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:11">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s"/>
+      <x:c r="F45" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+      <x:c r="K45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:11">
+      <x:c r="A46" s="0" t="s"/>
+      <x:c r="B46" s="0" t="s"/>
+      <x:c r="C46" s="0" t="s"/>
+      <x:c r="D46" s="0" t="s"/>
+      <x:c r="E46" s="0" t="s"/>
+      <x:c r="F46" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+      <x:c r="K46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:11">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s"/>
+      <x:c r="F47" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+      <x:c r="K47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:11">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s"/>
+      <x:c r="F48" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+      <x:c r="K48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:11">
+      <x:c r="A49" s="0" t="s"/>
+      <x:c r="B49" s="0" t="s"/>
+      <x:c r="C49" s="0" t="s"/>
+      <x:c r="D49" s="0" t="s"/>
+      <x:c r="E49" s="0" t="s"/>
+      <x:c r="F49" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+      <x:c r="K49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:11">
+      <x:c r="A50" s="0" t="s"/>
+      <x:c r="B50" s="0" t="s"/>
+      <x:c r="C50" s="0" t="s"/>
+      <x:c r="D50" s="0" t="s"/>
+      <x:c r="E50" s="0" t="s"/>
+      <x:c r="F50" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+      <x:c r="K50" s="0" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:11">
+      <x:c r="A51" s="0" t="s"/>
+      <x:c r="B51" s="0" t="s"/>
+      <x:c r="C51" s="0" t="s"/>
+      <x:c r="D51" s="0" t="s"/>
+      <x:c r="E51" s="0" t="s"/>
+      <x:c r="F51" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s"/>
+      <x:c r="J51" s="0" t="s"/>
+      <x:c r="K51" s="0" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:11">
+      <x:c r="A52" s="0" t="s"/>
+      <x:c r="B52" s="0" t="s"/>
+      <x:c r="C52" s="0" t="s"/>
+      <x:c r="D52" s="0" t="s"/>
+      <x:c r="E52" s="0" t="s"/>
+      <x:c r="F52" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s"/>
+      <x:c r="J52" s="0" t="s"/>
+      <x:c r="K52" s="0" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:11">
+      <x:c r="A53" s="0" t="s"/>
+      <x:c r="B53" s="0" t="s"/>
+      <x:c r="C53" s="0" t="s"/>
+      <x:c r="D53" s="0" t="s"/>
+      <x:c r="E53" s="0" t="s"/>
+      <x:c r="F53" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s"/>
+      <x:c r="J53" s="0" t="s"/>
+      <x:c r="K53" s="0" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:11">
+      <x:c r="A54" s="0" t="s"/>
+      <x:c r="B54" s="0" t="s"/>
+      <x:c r="C54" s="0" t="s"/>
+      <x:c r="D54" s="0" t="s"/>
+      <x:c r="E54" s="0" t="s"/>
+      <x:c r="F54" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s"/>
+      <x:c r="J54" s="0" t="s"/>
+      <x:c r="K54" s="0" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:11">
+      <x:c r="A55" s="0" t="s"/>
+      <x:c r="B55" s="0" t="s"/>
+      <x:c r="C55" s="0" t="s"/>
+      <x:c r="D55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s"/>
+      <x:c r="F55" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s"/>
+      <x:c r="J55" s="0" t="s"/>
+      <x:c r="K55" s="0" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:11">
+      <x:c r="A56" s="0" t="s"/>
+      <x:c r="B56" s="0" t="s"/>
+      <x:c r="C56" s="0" t="s"/>
+      <x:c r="D56" s="0" t="s"/>
+      <x:c r="E56" s="0" t="s"/>
+      <x:c r="F56" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s"/>
+      <x:c r="J56" s="0" t="s"/>
+      <x:c r="K56" s="0" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:11">
+      <x:c r="A57" s="0" t="s"/>
+      <x:c r="B57" s="0" t="s"/>
+      <x:c r="C57" s="0" t="s"/>
+      <x:c r="D57" s="0" t="s"/>
+      <x:c r="E57" s="0" t="s"/>
+      <x:c r="F57" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s"/>
+      <x:c r="J57" s="0" t="s"/>
+      <x:c r="K57" s="0" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:11">
+      <x:c r="A58" s="0" t="s"/>
+      <x:c r="B58" s="0" t="s"/>
+      <x:c r="C58" s="0" t="s"/>
+      <x:c r="D58" s="0" t="s"/>
+      <x:c r="E58" s="0" t="s"/>
+      <x:c r="F58" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s"/>
+      <x:c r="J58" s="0" t="s"/>
+      <x:c r="K58" s="0" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:11">
+      <x:c r="A59" s="0" t="s"/>
+      <x:c r="B59" s="0" t="s"/>
+      <x:c r="C59" s="0" t="s"/>
+      <x:c r="D59" s="0" t="s"/>
+      <x:c r="E59" s="0" t="s"/>
+      <x:c r="F59" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s"/>
+      <x:c r="J59" s="0" t="s"/>
+      <x:c r="K59" s="0" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:11">
+      <x:c r="A60" s="0" t="s"/>
+      <x:c r="B60" s="0" t="s"/>
+      <x:c r="C60" s="0" t="s"/>
+      <x:c r="D60" s="0" t="s"/>
+      <x:c r="E60" s="0" t="s"/>
+      <x:c r="F60" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s"/>
+      <x:c r="J60" s="0" t="s"/>
+      <x:c r="K60" s="0" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:11">
+      <x:c r="A61" s="0" t="s"/>
+      <x:c r="B61" s="0" t="s"/>
+      <x:c r="C61" s="0" t="s"/>
+      <x:c r="D61" s="0" t="s"/>
+      <x:c r="E61" s="0" t="s"/>
+      <x:c r="F61" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s"/>
+      <x:c r="J61" s="0" t="s"/>
+      <x:c r="K61" s="0" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:11">
+      <x:c r="A62" s="0" t="s"/>
+      <x:c r="B62" s="0" t="s"/>
+      <x:c r="C62" s="0" t="s"/>
+      <x:c r="D62" s="0" t="s"/>
+      <x:c r="E62" s="0" t="s"/>
+      <x:c r="F62" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s"/>
+      <x:c r="J62" s="0" t="s"/>
+      <x:c r="K62" s="0" t="s"/>
+    </x:row>
+    <x:row r="63" spans="1:11">
+      <x:c r="A63" s="0" t="s"/>
+      <x:c r="B63" s="0" t="s"/>
+      <x:c r="C63" s="0" t="s"/>
+      <x:c r="D63" s="0" t="s"/>
+      <x:c r="E63" s="0" t="s"/>
+      <x:c r="F63" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s"/>
+      <x:c r="J63" s="0" t="s"/>
+      <x:c r="K63" s="0" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:11">
+      <x:c r="A64" s="0" t="s"/>
+      <x:c r="B64" s="0" t="s"/>
+      <x:c r="C64" s="0" t="s"/>
+      <x:c r="D64" s="0" t="s"/>
+      <x:c r="E64" s="0" t="s"/>
+      <x:c r="F64" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s"/>
+      <x:c r="J64" s="0" t="s"/>
+      <x:c r="K64" s="0" t="s"/>
+    </x:row>
+    <x:row r="65" spans="1:11">
+      <x:c r="A65" s="0" t="s"/>
+      <x:c r="B65" s="0" t="s"/>
+      <x:c r="C65" s="0" t="s"/>
+      <x:c r="D65" s="0" t="s"/>
+      <x:c r="E65" s="0" t="s"/>
+      <x:c r="F65" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s"/>
+      <x:c r="J65" s="0" t="s"/>
+      <x:c r="K65" s="0" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:11">
+      <x:c r="A66" s="0" t="s"/>
+      <x:c r="B66" s="0" t="s"/>
+      <x:c r="C66" s="0" t="s"/>
+      <x:c r="D66" s="0" t="s"/>
+      <x:c r="E66" s="0" t="s"/>
+      <x:c r="F66" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s"/>
+      <x:c r="J66" s="0" t="s"/>
+      <x:c r="K66" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
